--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3871.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3871.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.780070869186455</v>
+        <v>4.453351974487305</v>
       </c>
       <c r="B1">
-        <v>2.968412713556551</v>
+        <v>3.470021963119507</v>
       </c>
       <c r="C1">
-        <v>3.18160154158372</v>
+        <v>3.067542791366577</v>
       </c>
       <c r="D1">
-        <v>3.655992970867939</v>
+        <v>3.83814525604248</v>
       </c>
       <c r="E1">
-        <v>1.20872158379032</v>
+        <v>5.149348258972168</v>
       </c>
     </row>
   </sheetData>
